--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>27/08/2018</t>
+  </si>
+  <si>
+    <t>28/08/2018</t>
   </si>
 </sst>
 </file>
@@ -413,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,6 +503,24 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="F6" s="5">
+        <f>(C6-B6)+(E6-D6)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>date</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>28/08/2018</t>
+  </si>
+  <si>
+    <t>29/08/2018</t>
   </si>
 </sst>
 </file>
@@ -416,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,6 +522,192 @@
       </c>
       <c r="G6" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" ref="F7:F31" si="0">(C7-B7)+(E7-D7)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>43199</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>43229</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F21" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F22" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F23" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F24" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F25" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F26" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F27" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F28" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F29" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F30" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F31" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>date</t>
   </si>
@@ -422,7 +422,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,21 +579,57 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>43260</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>43382</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>43413</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
